--- a/okayama_map/test2/災害.xlsx
+++ b/okayama_map/test2/災害.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cradle\Documents\GitHub\d3.js\extest2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\User_C01\Desktop\d3.js\okayama_map\test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>disaster</t>
     <phoneticPr fontId="1"/>
@@ -48,6 +48,10 @@
     <rPh sb="2" eb="3">
       <t>クズ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>place</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -381,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14611"/>
+  <dimension ref="A1:C14611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14429" workbookViewId="0">
-      <selection activeCell="A14444" sqref="A14444"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -392,85 +396,88 @@
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <v>27760</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="1">
         <v>27761</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="1">
         <v>27762</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
         <v>27763</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <v>27764</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>27765</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>27766</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
         <v>27767</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <v>27768</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
         <v>27769</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
         <v>27770</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
         <v>27771</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
         <v>27772</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" s="1">
         <v>27773</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
         <v>27774</v>
       </c>
